--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.19761926707763</v>
+        <v>0.375721</v>
       </c>
       <c r="H2">
-        <v>0.19761926707763</v>
+        <v>1.127163</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3470687401563893</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3470687401563892</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.21439313743159</v>
+        <v>1.285895333333333</v>
       </c>
       <c r="N2">
-        <v>1.21439313743159</v>
+        <v>3.857686</v>
       </c>
       <c r="O2">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="P2">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="Q2">
-        <v>0.2399874817633344</v>
+        <v>0.4831378805353333</v>
       </c>
       <c r="R2">
-        <v>0.2399874817633344</v>
+        <v>4.348240924818</v>
       </c>
       <c r="S2">
-        <v>0.4470250937081073</v>
+        <v>0.1341163807808785</v>
       </c>
       <c r="T2">
-        <v>0.4470250937081073</v>
+        <v>0.1341163807808785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.19761926707763</v>
+        <v>0.375721</v>
       </c>
       <c r="H3">
-        <v>0.19761926707763</v>
+        <v>1.127163</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3470687401563893</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3470687401563892</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.344312296791771</v>
+        <v>0.3517506666666667</v>
       </c>
       <c r="N3">
-        <v>0.344312296791771</v>
+        <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="P3">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="Q3">
-        <v>0.06804274373780519</v>
+        <v>0.1321601122306667</v>
       </c>
       <c r="R3">
-        <v>0.06804274373780519</v>
+        <v>1.189441010076</v>
       </c>
       <c r="S3">
-        <v>0.1267433354109065</v>
+        <v>0.03668690999002604</v>
       </c>
       <c r="T3">
-        <v>0.1267433354109065</v>
+        <v>0.03668690999002604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.19761926707763</v>
+        <v>0.375721</v>
       </c>
       <c r="H4">
-        <v>0.19761926707763</v>
+        <v>1.127163</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3470687401563893</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3470687401563892</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.496101923158297</v>
+        <v>0.5966156666666667</v>
       </c>
       <c r="N4">
-        <v>0.496101923158297</v>
+        <v>1.789847</v>
       </c>
       <c r="O4">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="P4">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="Q4">
-        <v>0.09803929845034537</v>
+        <v>0.2241610348956666</v>
       </c>
       <c r="R4">
-        <v>0.09803929845034537</v>
+        <v>2.017449314061</v>
       </c>
       <c r="S4">
-        <v>0.1826179692991742</v>
+        <v>0.06222585295732027</v>
       </c>
       <c r="T4">
-        <v>0.1826179692991742</v>
+        <v>0.06222585295732026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.375721</v>
+      </c>
+      <c r="H5">
+        <v>1.127163</v>
+      </c>
+      <c r="I5">
+        <v>0.3470687401563893</v>
+      </c>
+      <c r="J5">
+        <v>0.3470687401563892</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.093401</v>
+      </c>
+      <c r="N5">
+        <v>3.280203</v>
+      </c>
+      <c r="O5">
+        <v>0.328579279069553</v>
+      </c>
+      <c r="P5">
+        <v>0.3285792790695531</v>
+      </c>
+      <c r="Q5">
+        <v>0.4108137171209999</v>
+      </c>
+      <c r="R5">
+        <v>3.697323454089</v>
+      </c>
+      <c r="S5">
+        <v>0.1140395964281644</v>
+      </c>
+      <c r="T5">
+        <v>0.1140395964281644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.919331</v>
+      </c>
+      <c r="I6">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J6">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.285895333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.857686</v>
+      </c>
+      <c r="O6">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="P6">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="Q6">
+        <v>0.3940544808962222</v>
+      </c>
+      <c r="R6">
+        <v>3.546490328066</v>
+      </c>
+      <c r="S6">
+        <v>0.1093873259321552</v>
+      </c>
+      <c r="T6">
+        <v>0.1093873259321551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.919331</v>
+      </c>
+      <c r="I7">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J7">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3517506666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.055252</v>
+      </c>
+      <c r="O7">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="P7">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="Q7">
+        <v>0.1077917640457778</v>
+      </c>
+      <c r="R7">
+        <v>0.9701258764120001</v>
+      </c>
+      <c r="S7">
+        <v>0.02992239245614045</v>
+      </c>
+      <c r="T7">
+        <v>0.02992239245614044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.919331</v>
+      </c>
+      <c r="I8">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J8">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5966156666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.789847</v>
+      </c>
+      <c r="O8">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="P8">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="Q8">
+        <v>0.1828290924841111</v>
+      </c>
+      <c r="R8">
+        <v>1.645461832357</v>
+      </c>
+      <c r="S8">
+        <v>0.05075233628597302</v>
+      </c>
+      <c r="T8">
+        <v>0.05075233628597301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.19761926707763</v>
-      </c>
-      <c r="H5">
-        <v>0.19761926707763</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.661803308382329</v>
-      </c>
-      <c r="N5">
-        <v>0.661803308382329</v>
-      </c>
-      <c r="O5">
-        <v>0.243613601581812</v>
-      </c>
-      <c r="P5">
-        <v>0.243613601581812</v>
-      </c>
-      <c r="Q5">
-        <v>0.1307850847520666</v>
-      </c>
-      <c r="R5">
-        <v>0.1307850847520666</v>
-      </c>
-      <c r="S5">
-        <v>0.243613601581812</v>
-      </c>
-      <c r="T5">
-        <v>0.243613601581812</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3064436666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.919331</v>
+      </c>
+      <c r="I9">
+        <v>0.2830744550315381</v>
+      </c>
+      <c r="J9">
+        <v>0.283074455031538</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.093401</v>
+      </c>
+      <c r="N9">
+        <v>3.280203</v>
+      </c>
+      <c r="O9">
+        <v>0.328579279069553</v>
+      </c>
+      <c r="P9">
+        <v>0.3285792790695531</v>
+      </c>
+      <c r="Q9">
+        <v>0.3350658115769999</v>
+      </c>
+      <c r="R9">
+        <v>3.015592304193</v>
+      </c>
+      <c r="S9">
+        <v>0.09301240035726938</v>
+      </c>
+      <c r="T9">
+        <v>0.09301240035726938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.654676</v>
+      </c>
+      <c r="I10">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J10">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.285895333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.857686</v>
+      </c>
+      <c r="O10">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="P10">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="Q10">
+        <v>0.2806149377484445</v>
+      </c>
+      <c r="R10">
+        <v>2.525534439736</v>
+      </c>
+      <c r="S10">
+        <v>0.07789714149959005</v>
+      </c>
+      <c r="T10">
+        <v>0.07789714149959003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.654676</v>
+      </c>
+      <c r="I11">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J11">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3517506666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.055252</v>
+      </c>
+      <c r="O11">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="P11">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="Q11">
+        <v>0.07676090648355557</v>
+      </c>
+      <c r="R11">
+        <v>0.6908481583520001</v>
+      </c>
+      <c r="S11">
+        <v>0.02130839948137962</v>
+      </c>
+      <c r="T11">
+        <v>0.02130839948137961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.654676</v>
+      </c>
+      <c r="I12">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J12">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5966156666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.789847</v>
+      </c>
+      <c r="O12">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="P12">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="Q12">
+        <v>0.1301966527302222</v>
+      </c>
+      <c r="R12">
+        <v>1.171769874572</v>
+      </c>
+      <c r="S12">
+        <v>0.0361418645845247</v>
+      </c>
+      <c r="T12">
+        <v>0.03614186458452469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2182253333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.654676</v>
+      </c>
+      <c r="I13">
+        <v>0.2015835992936464</v>
+      </c>
+      <c r="J13">
+        <v>0.2015835992936463</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.093401</v>
+      </c>
+      <c r="N13">
+        <v>3.280203</v>
+      </c>
+      <c r="O13">
+        <v>0.328579279069553</v>
+      </c>
+      <c r="P13">
+        <v>0.3285792790695531</v>
+      </c>
+      <c r="Q13">
+        <v>0.238607797692</v>
+      </c>
+      <c r="R13">
+        <v>2.147470179228</v>
+      </c>
+      <c r="S13">
+        <v>0.066236193728152</v>
+      </c>
+      <c r="T13">
+        <v>0.06623619372815198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.182165</v>
+      </c>
+      <c r="H14">
+        <v>0.546495</v>
+      </c>
+      <c r="I14">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J14">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.285895333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.857686</v>
+      </c>
+      <c r="O14">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="P14">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="Q14">
+        <v>0.2342451233966667</v>
+      </c>
+      <c r="R14">
+        <v>2.10820611057</v>
+      </c>
+      <c r="S14">
+        <v>0.06502513967797575</v>
+      </c>
+      <c r="T14">
+        <v>0.06502513967797575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.182165</v>
+      </c>
+      <c r="H15">
+        <v>0.546495</v>
+      </c>
+      <c r="I15">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J15">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3517506666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.055252</v>
+      </c>
+      <c r="O15">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="P15">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="Q15">
+        <v>0.06407666019333334</v>
+      </c>
+      <c r="R15">
+        <v>0.57668994174</v>
+      </c>
+      <c r="S15">
+        <v>0.01778732346164599</v>
+      </c>
+      <c r="T15">
+        <v>0.01778732346164599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.182165</v>
+      </c>
+      <c r="H16">
+        <v>0.546495</v>
+      </c>
+      <c r="I16">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J16">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5966156666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.789847</v>
+      </c>
+      <c r="O16">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="P16">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="Q16">
+        <v>0.1086824929183333</v>
+      </c>
+      <c r="R16">
+        <v>0.9781424362649999</v>
+      </c>
+      <c r="S16">
+        <v>0.03016965382283729</v>
+      </c>
+      <c r="T16">
+        <v>0.03016965382283728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.182165</v>
+      </c>
+      <c r="H17">
+        <v>0.546495</v>
+      </c>
+      <c r="I17">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="J17">
+        <v>0.1682732055184263</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.093401</v>
+      </c>
+      <c r="N17">
+        <v>3.280203</v>
+      </c>
+      <c r="O17">
+        <v>0.328579279069553</v>
+      </c>
+      <c r="P17">
+        <v>0.3285792790695531</v>
+      </c>
+      <c r="Q17">
+        <v>0.199179393165</v>
+      </c>
+      <c r="R17">
+        <v>1.792614538485</v>
+      </c>
+      <c r="S17">
+        <v>0.05529108855596725</v>
+      </c>
+      <c r="T17">
+        <v>0.05529108855596725</v>
       </c>
     </row>
   </sheetData>
